--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CEPH-Alone" sheetId="7" r:id="rId1"/>
     <sheet name="OpenStack_Ceph-AIO-Ubuntu" sheetId="8" r:id="rId2"/>
     <sheet name="OpenStack_Ceph-AIO-CentOS" sheetId="9" r:id="rId3"/>
     <sheet name="HA_RABBITMQ" sheetId="10" r:id="rId4"/>
+    <sheet name="LB_Nginx" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="72">
   <si>
     <t>Controller</t>
   </si>
@@ -216,6 +217,39 @@
   </si>
   <si>
     <t>172.16.69.43</t>
+  </si>
+  <si>
+    <t>lb1</t>
+  </si>
+  <si>
+    <t>lb2</t>
+  </si>
+  <si>
+    <t>lb3</t>
+  </si>
+  <si>
+    <t>ens32</t>
+  </si>
+  <si>
+    <t>ens33</t>
+  </si>
+  <si>
+    <t>10.10.10.51</t>
+  </si>
+  <si>
+    <t>172.16.69.51</t>
+  </si>
+  <si>
+    <t>10.10.10.52</t>
+  </si>
+  <si>
+    <t>172.16.69.52</t>
+  </si>
+  <si>
+    <t>172.16.69.53</t>
+  </si>
+  <si>
+    <t>10.10.10.53</t>
   </si>
 </sst>
 </file>
@@ -471,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,40 +599,73 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,36 +699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,23 +1000,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1023,7 +1060,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1037,30 +1074,30 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="39">
-        <v>4</v>
-      </c>
-      <c r="I4" s="39">
+      <c r="H4" s="50">
+        <v>4</v>
+      </c>
+      <c r="I4" s="50">
         <v>2</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="42">
         <v>40</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="43">
         <v>60</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="43">
         <v>60</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="43">
         <v>60</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1076,16 +1113,16 @@
       <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1097,16 +1134,16 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1114,16 +1151,16 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1137,30 +1174,30 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="39">
-        <v>4</v>
-      </c>
-      <c r="I8" s="39">
+      <c r="H8" s="50">
+        <v>4</v>
+      </c>
+      <c r="I8" s="50">
         <v>2</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="42">
         <v>40</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="43">
         <v>60</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="43">
         <v>60</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="43">
         <v>60</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1176,16 +1213,16 @@
       <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1197,16 +1234,16 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1214,16 +1251,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1237,30 +1274,30 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="39">
-        <v>4</v>
-      </c>
-      <c r="I12" s="39">
+      <c r="H12" s="50">
+        <v>4</v>
+      </c>
+      <c r="I12" s="50">
         <v>2</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="42">
         <v>40</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="43">
         <v>60</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="43">
         <v>60</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="43">
         <v>60</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="43">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1276,16 +1313,16 @@
       <c r="G13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1297,16 +1334,16 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1314,26 +1351,16 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="N12:N15"/>
@@ -1350,6 +1377,16 @@
     <mergeCell ref="L8:L11"/>
     <mergeCell ref="M8:M11"/>
     <mergeCell ref="N8:N11"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1377,51 +1414,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="2:15" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1457,7 +1494,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1474,24 +1511,24 @@
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="52">
+      <c r="I5" s="63">
         <v>6</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="63">
         <v>2</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="66">
         <v>100</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="58">
         <v>60</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="15" t="s">
         <v>49</v>
       </c>
@@ -1510,16 +1547,16 @@
       <c r="H6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
     </row>
     <row r="7" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
@@ -1530,16 +1567,16 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="32"/>
@@ -1554,22 +1591,22 @@
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="60">
+      <c r="I8" s="57">
         <v>8</v>
       </c>
-      <c r="J8" s="39">
-        <v>4</v>
-      </c>
-      <c r="K8" s="40">
+      <c r="J8" s="50">
+        <v>4</v>
+      </c>
+      <c r="K8" s="42">
         <v>100</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
     </row>
     <row r="9" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="32"/>
       <c r="D9" s="14" t="s">
         <v>2</v>
@@ -1586,16 +1623,16 @@
       <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
     </row>
     <row r="10" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="32"/>
@@ -1610,22 +1647,22 @@
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="60">
+      <c r="I10" s="57">
         <v>8</v>
       </c>
-      <c r="J10" s="39">
-        <v>4</v>
-      </c>
-      <c r="K10" s="40">
+      <c r="J10" s="50">
+        <v>4</v>
+      </c>
+      <c r="K10" s="42">
         <v>60</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="32"/>
       <c r="D11" s="14" t="s">
         <v>2</v>
@@ -1642,16 +1679,16 @@
       <c r="H11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="32"/>
@@ -1666,30 +1703,30 @@
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="60">
+      <c r="I12" s="57">
         <v>8</v>
       </c>
-      <c r="J12" s="39">
-        <v>4</v>
-      </c>
-      <c r="K12" s="40">
+      <c r="J12" s="50">
+        <v>4</v>
+      </c>
+      <c r="K12" s="42">
         <v>60</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="43">
         <v>50</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="43">
         <v>50</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="43">
         <v>50</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="43">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="32"/>
       <c r="D13" s="15" t="s">
         <v>2</v>
@@ -1706,16 +1743,16 @@
       <c r="H13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
     </row>
     <row r="14" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="64"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="33"/>
       <c r="D14" s="14" t="s">
         <v>23</v>
@@ -1728,16 +1765,36 @@
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="B2:O2"/>
@@ -1754,26 +1811,6 @@
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1802,40 +1839,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -1879,7 +1916,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -1893,24 +1930,24 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="60">
+      <c r="H5" s="57">
         <v>6</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="50">
         <v>2</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="42">
         <v>100</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="43">
         <v>60</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="27" t="s">
         <v>40</v>
       </c>
@@ -1926,16 +1963,16 @@
       <c r="G6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -1949,22 +1986,22 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="60">
+      <c r="H7" s="57">
         <v>8</v>
       </c>
-      <c r="I7" s="39">
-        <v>4</v>
-      </c>
-      <c r="J7" s="40">
+      <c r="I7" s="50">
+        <v>4</v>
+      </c>
+      <c r="J7" s="42">
         <v>100</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="59"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="27" t="s">
         <v>40</v>
       </c>
@@ -1980,16 +2017,16 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -2003,22 +2040,22 @@
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="60">
+      <c r="H9" s="57">
         <v>8</v>
       </c>
-      <c r="I9" s="39">
-        <v>4</v>
-      </c>
-      <c r="J9" s="40">
+      <c r="I9" s="50">
+        <v>4</v>
+      </c>
+      <c r="J9" s="42">
         <v>60</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="27" t="s">
         <v>40</v>
       </c>
@@ -2034,16 +2071,16 @@
       <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="54" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2057,30 +2094,30 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="60">
+      <c r="H11" s="57">
         <v>8</v>
       </c>
-      <c r="I11" s="39">
-        <v>4</v>
-      </c>
-      <c r="J11" s="40">
+      <c r="I11" s="50">
+        <v>4</v>
+      </c>
+      <c r="J11" s="42">
         <v>60</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="43">
         <v>50</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="43">
         <v>50</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="43">
         <v>50</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="43">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="29" t="s">
         <v>40</v>
       </c>
@@ -2096,16 +2133,16 @@
       <c r="G12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="64"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="30" t="s">
         <v>41</v>
       </c>
@@ -2117,16 +2154,317 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4" spans="2:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="63">
+        <v>2</v>
+      </c>
+      <c r="I5" s="63">
+        <v>1</v>
+      </c>
+      <c r="J5" s="66">
+        <v>20</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+    </row>
+    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+    </row>
+    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="63">
+        <v>2</v>
+      </c>
+      <c r="I7" s="63">
+        <v>1</v>
+      </c>
+      <c r="J7" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+    </row>
+    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="55"/>
+      <c r="C8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+    </row>
+    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="63">
+        <v>2</v>
+      </c>
+      <c r="I9" s="63">
+        <v>1</v>
+      </c>
+      <c r="J9" s="66">
+        <v>20</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+    </row>
+    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="C10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="H3:N3"/>
@@ -2148,32 +2486,24 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2190,46 +2520,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
@@ -2265,41 +2595,41 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
-        <v>53</v>
+      <c r="B5" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="52">
+      <c r="G5" s="36"/>
+      <c r="H5" s="63">
         <v>2</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="63">
         <v>1</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="66">
         <v>20</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="29" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>4</v>
@@ -2307,53 +2637,53 @@
       <c r="F6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
-        <v>54</v>
+      <c r="B7" s="54" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="52">
+      <c r="G7" s="38"/>
+      <c r="H7" s="63">
         <v>2</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="63">
         <v>1</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="66">
         <v>20</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="59"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="29" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>4</v>
@@ -2361,53 +2691,53 @@
       <c r="F8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
-        <v>55</v>
+      <c r="B9" s="54" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="52">
+      <c r="G9" s="38"/>
+      <c r="H9" s="63">
         <v>2</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="63">
         <v>1</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="66">
         <v>20</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="64"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="27" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>4</v>
@@ -2415,16 +2745,16 @@
       <c r="F10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2436,7 +2766,6 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="H7:H8"/>
@@ -2455,6 +2784,7 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
